--- a/2025-10-22/22_combined_confidence.xlsx
+++ b/2025-10-22/22_combined_confidence.xlsx
@@ -482,33 +482,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" t="n">
         <v>100</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Galatasaray  - FK Bodø/Glimt: 17:45</t>
+          <t>Real Madrid  - Juventus FC: 20:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>72</v>
       </c>
       <c r="D3" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
@@ -528,14 +528,14 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>

--- a/2025-10-22/22_combined_confidence.xlsx
+++ b/2025-10-22/22_combined_confidence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bayern Munich  - Club Brugge KV: 20:00</t>
+          <t>Bayern Munich ✓ - Club Brugge KV: 4:0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
         <v>100</v>
@@ -491,53 +491,92 @@
       <c r="F2" t="n">
         <v>1.22</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Real Madrid  - Juventus FC: 20:00</t>
+          <t>Galatasaray ✓ - FK Bodø/Glimt: 3:1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D3" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>1.6</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chelsea FC  - Ajax Amsterdam: 20:00</t>
+          <t>Real Madrid ✓ - Juventus FC: 1:0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4" t="n">
         <v>94</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chelsea FC ✓ - Ajax Amsterdam: 5:1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chelsea FC</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="n">
+        <v>94</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
         <v>1.3</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
